--- a/biology/Botanique/Jean-Baptiste_Édouard_Bornet/Jean-Baptiste_Édouard_Bornet.xlsx
+++ b/biology/Botanique/Jean-Baptiste_Édouard_Bornet/Jean-Baptiste_Édouard_Bornet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_%C3%89douard_Bornet</t>
+          <t>Jean-Baptiste_Édouard_Bornet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Édouard Bornet est un botaniste français, né le 2 septembre 1828 à Guérigny et mort le 18 décembre 1911 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_%C3%89douard_Bornet</t>
+          <t>Jean-Baptiste_Édouard_Bornet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bornet détermine la nature des lichens et décrit le processeur reproductif des algues rouges. Les Notes algologiques (1876-1880) et les Études phycologiques (1878) de Gustave Adolphe Thuret sont publiées par ses soins après la mort de Thuret. Il étudie aussi les algues récoltées au Maroc et en Méditerranée par Peter Schousboe.
 Bornet est membre de l’Académie des sciences en 1886. Il reçoit la médaille linnéenne en 1891 et devient membre étranger de la Royal Society en 1910. Il est président de la Société botanique de France en 1882.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_%C3%89douard_Bornet</t>
+          <t>Jean-Baptiste_Édouard_Bornet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Notice biographique sur M. Gustave-Adolphe Thuret », Mémoires de la Société Nationale des Sciences Naturelles de Cherbourg, vol. 20,‎ 1976, p. 1-69
 « Notice biographique de Joseph Decaisne », dans Catalogue de la bibliothèque de feu M.J. Decaisne classé par Julien-Joseph Vesque, Paris, Adolphe Labitte, 1883, xxi+482 p.
